--- a/output/Total_time_range_data/黑龙江省/伊春市_学习考察.xlsx
+++ b/output/Total_time_range_data/黑龙江省/伊春市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1022 +436,1120 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>62</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>铁力市人大常委会召开学习习近平总书记考察江苏重要讲话重要指示精神和江苏黑龙江工作交流座谈会精神专题研讨会</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-09-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202309/328480.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['铁力市人大常委会召开学习习近平总书记考察江苏重要讲话重要指示精神和江苏·黑龙江工作交流座谈会精神专题研讨会', '铁力市人大常委会召开学习习近平同志考察江苏重要讲话重要指示精神和江苏·黑龙江工作交流座谈会精神专题研讨会，铁力市人大常委会主任郭春光主持会议并讲话，市人大常委会副主任赵亮、王跃军、史家明出席会议，市人大常委会相关负责人参加会议。', '会议专题学习习近平同志考察江苏重要讲话和重要指示精神以及江苏·黑龙江工作交流座谈会精神。市人大常委会班子成员做了专题研讨发言。', '郭春光强调，在今后的工作中要深入贯彻落实好习近平同志考察江苏重要讲话重要指示精神和江苏·黑龙江工作交流座谈会精神专题研讨会精神，坚定拥护“两个确立”、坚决做到“两个维护”，树立构建新发展格局的信心和决心，体现出人大干部为铁力发展创造奉献的责任和担当。', '郭春光强调，要结合工作职能和发展需要，认真向江苏学习，向先进学习。在今后的工作中，人大干部要继续发扬善学善做精神，发扬无私奉献精神，拓展勇担使命的格局胸怀，营造创新发展的火热氛围，激发干事创业的昂扬斗志，持续深入解放思想，更好汲取典型经验，积极推进制度创新，全力服务振兴发展，为铁力的大发展快发展贡献更多人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>62</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>铁力市供销社考察学习促提升传达贯彻促发展</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101989/202309/328218.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['，为深入贯彻党的二十大精神和习近平总书记关于供销合作社工作的重要指示批示精神，传达学习赵励军在全省持续深化供销合作社综合改革暨基层组织建设现场会上的讲话精神，供销社召开传达学习会议，全体机关干部参会。', '会议指出：要以参加全省持续深化供销合作社综合改革暨基层组织建设（依安）现场观摩会为契机，学习依安地区在综合改革中的先进经验和做法，推进铁力市供销社各项工作高质量发展。', '会议强调：一要持续深入学习贯彻习近平总书记关于供销合作社工作的重要指示批示精神和党中央、省委、市委决策部署。二要提升本领，以持续深化综合改革为统领，加快推进供销社综合改革工作提质见效。三要解放思想，转观念、转方式、转作风，不折不扣把各项工作抓实抓细。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>62</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>伊春市教育局组织部分县区教育局长校长赴佳木斯桦川县考察学习</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c102049/202403/347849.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['为学习佳木斯市桦川县义务教育优质均衡发展的先进做法，促进伊春市义务教育事业更好发展，3月21日一22日，伊春市教育局组织了由市政府督学王帅带队，部分县区教育局长、校长组成的考察团共计23人，赴佳木斯市桦川县考察学习县域义务教育优质均衡发展创建工作。', '在座谈会上，考察团观看了桦川县义务教育优质均衡创建宣传片，听取了桦川县创建省义务教育优质均衡发展先行县的经验介绍，并与桦川县教育局就教育经费保障、教师队伍建设、教育质量提升、教育内涵式发展及教育督导评估等工作进行了深入交流、探讨。', '在实地走访过程中，考察团深入桦川县书香小学、冷云小学、实验小学、中兴小学、第二中学、第三中学、第四中学和创业乡中心校共8所义务教育学校，实地观摩了各校校园文化建设、课程管理、社团活动、教育质量提升、功能室管理使用等方面的具体做法。各学校负责人向考察团详细介绍了学校的办学理念和文化特色等情况，并就“双减”、“五项管理”、研学实践与考察团成员进行了深入交流。', '考察团的同志纷纷表示，此次考察学习收获很大，进一步明确了优质均衡创建的工作路径，找到了工作的着力点和主攻方向，还在学校校园文化建设方面开阔了视野，开拓了思路。伊春和桦川两地教育同仁表示今后在县域义务教育优质均衡发展创建和中小学研学实践上还将继续保持深度交流、互相促进、共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>62</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>伊春市教育局组织部分县区教育局长校长赴佳木斯桦川县考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-03-22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101989/202403/347324.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['由市政府督学王帅带队，部分县区教育局长、校长组成的考察团共计23人，赴佳木斯市桦川县考察学习县域义务教育优质均衡', '听取了桦川县创建省义务教育优质均衡发展先行县的经验介绍，并与桦川县教育局就教育经费保障、教师队伍建设、教育质量提升、教育内涵式发展及教育督导评估等工作进行了深入交流、探讨。', '书香小学、冷云小学、实验小学、中兴小学、第二中学、第三中学、第四中学和创业乡中心校等8', '各学校负责人向考察团详细介绍了学校的办学理念和文化特色等情况，并就“双减”、“五项管理”、研学实践与考察团成员进行了深入交流。', '还在学校校园文化建设方面开阔了视野，开拓了思路。伊春和桦川两地教育同仁表示今后在县域义务教育优质均衡发展创建和中小学研学实践上还将继续保持深度交流、互相促进、共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>62</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>双鸭山市综治中心到铁力市学习考察综治中心规范化建设工作</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-10-26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202310/331557.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['以双鸭山市综治中心主任高原为组长的学习考察组一行13人，到铁力市就综治中心规范化建设工作进行学习考察。伊春市综治中心主任李建军，铁力市委常委、政法委书记姚佳宇及相关人员陪同学习考察。', '考察组先后深入到铁力市综治中心、铁力镇综治中心及铁力镇宏伟社区网格服务站，实地学习考察铁力市综治中心及网格协调指挥中心（站）建设及运行工作。在铁力市综治中心，学习考察组参观了群众接待大厅、矛盾纠纷调解室、心理疏导室等功能室，通过现场讲解和观摩等方式，详细了解铁力市综治中心规范化建设工作情况和经验做法。通过市域社会治理信息化平台详细了解“数字+网格”在基层社会治理工作中的作用发挥，并与铁力市综治中心负责人就功能定位、人员配备、制度建设、运行模式等方面进行深入探讨，为双鸭山市综治中心的建设提供参考。', '学习考察组表示，铁力市综治中心建设及运行经验和做法非常值得学习和借鉴，学习考察组将以此次学习考察活动为契机，与铁力市综治中心建立工作联系，在今后的工作中不断进行交流，实现共同进步。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>62</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>铁力市委书记陈岩主持召开文明城市创建与乡村建设考察学习班座谈研讨会</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202303/289173.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['铁力市委书记陈岩主持召开铁力市文明城市创建与乡村建设考察学习班座谈研讨会，铁力市委常委、宣传部部长张淑琳出席会议，铁力市考察学习班成员参加会议。', '陈岩强调，创建全国文明城市，是贯彻落实党的二十大精神的具体实践，是检验“创建为民、创建惠民”的重要标尺。全体考察学习班成员要学习借鉴外地市创建全国文明城市、建设宜居和美乡村的优秀经验，发挥看齐意识，找短板补差距，切实把外地的先进经验运用到铁力市的城市建设、乡村振兴、融合发展等具体工作中。要进一步坚定信心，解放思想，创新工作方法，推动创城工作实现新突破、新进展。要切实把考察学习成果转化到转变作风、提升能力上来，坚守为民情怀，关注群众急难愁盼，不断提升服务意识，提升群众百姓幸福感和满意度。要进一步加强外出考察学习，持续对标外地先进、典型，学习优秀经验，推动各项工作打开新局面、迈上新台阶。', '会上，张淑琳从考察学习的主要内容、经验做法、体会启示、下步工作安排及建议等几个方面，就文明城市创建与乡村建设考察学习情况进行了总体汇报。张淑琳指出，本次考察学习内容丰富，受益匪浅，既开阔了视野、认识到了差距，又受到了启迪、增强了自信。考察学习班成员要积极学习借鉴先进经验，进一步开阔视野，拓宽思路，扎实推进铁力市文明城市创建和乡村建设工作。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>62</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>铁力市委书记陈岩主持召开市委解放思想专项工作学习领会习近平总书记考察江苏重要讲话和重要指示精神以及江苏黑龙江工作交流座谈会精神专题研讨会</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202309/326345.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['铁力市委书记陈岩主持召开市委解放思想专项工作学习领会习近平总书记考察江苏重要讲话和重要指示精神以及江苏·黑龙江工作交流座谈会精神专题研讨会', '铁力市委书记陈岩主持召开市委解放思想专项工作学习领会习近平总书记考察江苏重要讲话和重要指示精神以及江苏·黑龙江工作交流座谈会精神专题研讨会。他强调，要认真学习领会习近平总书记考察江苏重要讲话和重要指示精神，以及江苏·黑龙江工作交流座谈会精神，动员全市上下不断拓展勇担使命的格局胸怀，营造创新发展的火热氛围，激发干事创业的昂扬斗志，更好地推动铁力高质量发展。铁力市领导郭春光、徐利明、穆静宇、姚佳宇、李兵、任利、于国峰、孟维东出席会议。铁力市相关部门负责人参加会议。', '市领导郭春光、徐利明、穆静宇、姚佳宇、李兵、任利、于国峰、孟维东出席会议。铁力市相关部门负责人参加会议。', '会上学习了习近平总书记考察江苏重要讲话和重要指示精神、江苏·黑龙江工作交流座谈会精神。', '会议强调，要深入领会精神要义，进一步坚定以中国式现代化全面推进中华民族伟大复兴的信心决心。要准确把握习近平总书记考察江苏重要讲话精神的丰富内涵，深入贯彻落实省委指示要求，始终牢记伊春市委“铁力在伊春现代化建设中走在前列、作出示范”的政治要求，不断提高把握新发展阶段、贯彻新发展理念、构建新发展格局的政治能力、战略眼光、专业水平，以“人无我有、人有我优、人优我特、人特我精”的精神，用心用情书写好“在推进中国式现代化中走在前、做示范”的铁力实践。', '会议强调，要准确把握科学内涵，坚定不移按照习近平总书记提出的要求谋划推进。要加快推进科技创新，持续深化校地合作共建，真正让校地合作成为推动铁力市高质量发展“重要引擎”。要在强链补链延链上下功夫，持续抓好招商引资，树立“换道超车”的发展思维，全面加快项目建设，超前谋划，积极做好对上争取，为铁力市高质量发展打下坚实基础。要高质量推进文化强市建设，守护历史文化根脉，紧扣全国文明城市创建目标，坚持文明创建、文明实践、文明培育互促共融，促进新时代文明新风建设纵深发展。要大力发展文化产业，不断激发文化创新、创造活力，打造铁力文化“新名片”。要持续抓好社会治理，坚决贯彻总体国家安全观，多元化解社会矛盾纠纷，持续加强和创新乡村治理，推进试点村建设，推动乡村治理再上新台阶。', '会议强调，要深入贯彻实践要求，以更加过硬的能力作风不断开辟高质量发展新局面。要在思想解放上破坚冰，在提升本领上下功夫，在狠抓落实上求成效，坚持“实”字当头、“干”字为先，不断开创铁力市高质量发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>62</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>铁力市召开发展壮大村级集体经济考察学习座谈研讨会</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-03-27</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202303/289351.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月24日，铁力市委书记陈岩主持召开发展壮大村级集体经济考察学习座谈研讨会，铁力市委常委、组织部长尹冬钢，副市长赵晓光及考察学习班成员参加会议。', '陈岩强调，要充分认识发展壮大村级集体经济的重要意义，发展壮大村级集体经济既是贯彻中央决策部署的具体行动，也是强农业、美农村、富农民的重要举措。全体考察学习班成员要学习借鉴外地发展壮大村级集体经济的好经验和好做法，找差距、补短板，把外地的先进经验运用到铁力市发展壮大村级集体经济工作之中。通过考察学习要进一步解放思想、转变观念、创新方法，扎实推动村级集体经济工作深入开展。要坚定信心，勤思多想，把所学新知识、新本领运用到基层实践中，选准突破口，找准着力点。要拓宽思想，更新理念，科学谋划发展思路，开拓增收渠道，实现农民增收和壮大村级集体经济共赢的目标。要扛起责任、敢拼、敢干、敢于奉献，因地制宜，实事求是，探索出一条适合发展壮大村级集体经济的新路径，确保铁力市发展壮大村级集体经济工作再上新台阶。', '会上，尹冬钢就发展壮大村级集体经济考察学习情况进行了总体汇报。副市长赵晓光及部分考察学习班成员交流了学习体会。', '据悉，为探寻村级集体经济发展新思路、新途径，推动全市村级集体经济提质增效，按照市委统一安排部署，3月14日至20日，由铁力市委常委、组织部长尹冬钢，副市长赵晓光同志带队，组织相关部门及各乡镇负责同志、部分村党组织书记、村集体经济企业代表一行33人，赴成都市学习了发展壮大村级集体经济的典型做法和成功经验。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>62</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>丰林县召开学习习近平总书记考察江苏重要讲话和重要指示精神及江苏黑龙江工作交流座谈会精神专题研讨会</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202308/324142.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['丰林县召开学习习近平总书记考察江苏重要讲话和重要指示精神及江苏、黑龙江工作交流座谈会精神专题研讨会', '8月17日，县委书记姜治富主持召开学习习近平总书记考察江苏重要讲话和重要指示精神及江苏、黑龙江工作交流座谈会精神专题研讨会。原浩东、吴显春、徐长伟、黄绍峰、秦瑞红、王辉、许志坚、鄢杰明、赵覃、于兴生等县领导及相关部门负责同志出席会议。', '会上传达学习了习近平总书记考察江苏重要讲话和重要指示精神，江苏、黑龙江工作交流座谈会精神和《省党政代表团赴长三角地区学习考察工作落实方案》。县委常委依次进行研讨发言。', '姜治富强调，广大党员干部要提高政治站位，深刻领会习近平总书记考察江苏重要讲话重要指示精神的重大意义，与贯彻落实党的二十大精神和党中央决策部署结合起来，与即将开展的主题教育结合起来，切实增强学习贯彻的思想自觉、政治自觉、行动自觉。要把学习宣传贯彻习近平总书记重要讲话重要指示精神，作为当前和今后一个时期的重大政治任务，深刻领会“以学促干”的重要要求，树牢造福人民的政绩观，鼓足干事创业的精气神，形成狠抓落实的良好氛围，以扎扎实实的工作成效答好习近平总书记“林区三问”答卷。', '姜治富强调，要立足县情实际，深入学习贯彻江苏、黑龙江工作交流座谈会精神，学习借鉴江苏先进经验，按照许勤书记的要求部署，结合我县实际扎实推动丰林实践。要推进《省党政代表团赴长三角地区学习考察工作落实方案》落靠落细，聚焦《方案》明确的各项目标任务和工作要求，结合深化能力作风建设“工作落实年”活动，运用“四个体系”闭环工作落实机制，全面抓好贯彻落实。要以上率下抓落实。充分发挥“关键少数”作用，县处级领导干部要结合各自工作分工，带头对照《方案》内容认领工作任务，形成“头雁效应”，逐级压实责任，切实把各项工作抓紧抓实，抓出成效。要强化责任抓落实。各相关部门要主动承接工作，紧扣《方案》重点任务，结合工作实际，细化工作举措，加大推进力度，强化协调配合，确保各项任务按时序推进、按要求落实。要改进作风抓落实。坚持马上就办、办就办好，增强“坐不住、等不起、慢不得”的紧迫感，对照《方案》既定的“时间表”“任务书”“路线图”，细致盘点工作任务，科学审视工作进度，紧盯目标聚焦发力，以真抓实干的工作作风推动各项工作取得实质实效。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>62</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>铁力市供销社召开学习贯彻习近平总书记考察江苏重要讲话和重要指示精神江苏黑龙江工作交流座谈会精神省党政代表团赴长三角地区学习考察工作落实方案专题研讨会</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101989/202308/325092.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['铁力市供销社召开学习贯彻习近平总书记考察江苏重要讲话和重要指示精神、江苏•黑龙江工作交流座谈会精神、《省党政代表团赴长三角地区学习考察工作落实方案》专题研讨会', '黑龙江工作交流座谈会精神、《省党政代表团赴长三角地区学习考察工作落实方案》研讨会。全体党员干部参加。', '黑龙江工作交流座谈会精神，认真落实党的二十大战略部署，学习借鉴江苏先进经验，聚焦党和国家工作大局、省委、市委中心工作，主动将供销社工作放到大局中去谋划和推进，以全新姿态投入到服务', '会议传达了黑龙江省党政代表团赴长三角地区学习考察的有关情况。会议强调，要对标先进思想，进一步解放思想、创新发展，学习借鉴好经验好做法，要坚持真抓实干，在落实各项工作中要干在实处、走在前列，牢记为农服务宗旨，持续深化供销社综合改革，拓展服务领域，为全市供销合作事业高质量发展贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>浙江省安吉县人大常委会到铁力市人大常委会学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-06-23</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202106/216154.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['浙江省安吉县人大常委会副主任王一明一行九人，深入到铁力市马永顺纪念馆、中共北满省委会议遗址、向阳社区等地，就铁力市人大常委会工作进行学习考察。铁力市人大常委会主任郭春光、市人大常委会副主任赵亮及相关部门负责人陪同考察。', '在铁力镇向阳社区，考察团一行实地参观了社区人大代表之家、向阳社区文化活动室，详细了解社区人大代表之家日常工作、党史学习教育等开展情况，并听取了“代表之家”建设及工作开展情况的汇报。', '据悉，铁力镇向阳社区人大代表工作站成立于2014年5月，于2018年更名为人大代表之家，自成立以来始终坚持以党的群众路线为指导，全面树立社会主义核心价值观和为民服务的宗旨，密切联系群众、掌握社情民意，为解决民生问题搭建平台，充分发挥代表作用，使代表工作得到居民的充分认可。', '考察团表示，铁力市社区的“代表之家”建设工作扎实、成效显著，有很多独到之处和成功经验，非常值得学习和借鉴。在今后的工作中，希望两地在人大代表基层组织建设、党史学习教育等方面能够相互学习、相互促进，共同发挥好人大代表的决策、桥梁、监督、带头作用。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>62</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>铁力市开展乡村旅游民宿考察学习工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019-08-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/201908/213419.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为加快推进铁力市乡村旅游产业发展，打造标准化精品民宿，8月21日，铁力市副市长孙力艳率铁力市文旅局、各乡镇及民宿业主共20余人赴友好区等地考察民宿建设发展情况。', '学习考察组一行先后深入到友好区和丰林县对“溪水松月”“岭尚欲雪”“自在乡里”三家民宿进行实地参观，与业主深入沟通交流，详细了解个体民宿装修风格、功能布局、经营模式、运营收益等方面内容。', '学习人员对三家民宿通过旅游+农业+文化+民俗风情，打造四季旅游产品；以产业升级、产品升级的开发模式带动乡村经济和文化发展的模式有了更深刻的体会和认识，认为其超前理念，合理规划，高效建设、优品服务等诸多内容值得铁力市学习、借鉴。', '同时，考察组还参观了新青国家湿地公园、中小学研学教育基地、汤旺县林居及汽车营地，学习其建设发展、资本引入、环境打造等成熟经验做法。', '通过实地学习考察，大家增长了见识，拓宽了思路，仔细研究其他县区精品民宿的成功经验，畅谈如何利用本土优势发展铁力市特色民宿，将精品民宿真正做精、做细，促其发展壮大，加速旅游产业提档升级，打造铁力全域旅游新格局。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>62</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>嘉荫县工作队驻村办实事考察学习助乡村发展</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-09-13</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202109/216655.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['9月9日，嘉荫县乡村振兴工作队在县财政局的安排部署下，组织燎原村党员到嘉荫农场黏玉米种植实验田进行实地考察、学习，全面推动乡村振兴工作。', '在嘉荫农场黏玉米种植实验田现场，大家对黏玉米种植情况进行了实地查看，了解其产量、长势等情况，并对新品种的利润和市场也有了进一步的了解。据黏玉米种植实验田的负责人介绍，她原是我县青山乡人，这几年一直在绥芬河市做黏玉米项目，并取得了不错的成果，现在回到家乡做黏玉米实验田，是因为一直怀揣振兴家乡的愿望。', '县财政局将本单位的乡村振兴工作队下派到红光乡燎原村后，高度重视并全面指导。每周都会听取驻派燎原村乡村振兴工作队的情况汇报，指导工作队认真开展好燎原村乡村振兴工作。并与党史学习教育相结合，以“我为群众办实事”为抓手，全 面促进村内工作的高效开展。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>62</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>金林区纪委监委集中学习贯彻习近平总书记在福建考察期间重要讲话精神</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202104/215844.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['近日，金林区纪委监委召开专题班子会议，集中学习贯彻习近平总书记在福建考察期间重要讲话精神。金林区委常委、纪委书记、监委主任刘玉静主持会议，并就如何高标准高质量开展好党史学习教育提出明确要求。', '会议指出，习近平总书记在福建考察时发表的重要讲话，进一步深刻揭示在全党开展党史学习教育的重大意义和重中之重，提出“三个深刻领悟”的基本要求，为深化党史学习教育指明了方向、提供了遵循。要把学习领会习近平总书记最新重要讲话精神同学习领会习近平总书记关于党史的重要论述结合起来，要紧扣“明理”这一增信、崇德、力行的前提，教育引导广大纪检监察干部深刻领悟中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好等道理，深刻领悟坚持中国共产党领导的必然性、马克思主义及其中国化创新理论的真理性、中国特色社会主义道路的正确性。', '会议强调，纪检监察机关要强化政治担当、扛起政治责任，紧紧围绕学懂弄通做实党的创新理论，牢牢把握“学党史、悟思想、办实事、开新局”的要求，以“我为群众办实事”实践活动为重要内容，学史明理、学史增信、学史崇德、学史力行，不断提高政治判断力、政治领悟力、政治执行力。全区纪检监察干部要全身心投入、扎扎实实开展党史学习教育，要沉下心来，聚焦主题，抓实抓细方案落实工作。要力戒形式主义、官僚主义，不论是规定动作还是自选动作都要奔着目标要求去，突出问题导向、目标导向和效果导向，切实把学习成果转化为工作动力，推动党史学习教育不断走深走心走实。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>62</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>赵万山率团赴河北保定学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-03-21</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101986/201903/176429.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为认真学习借鉴先进地区经验，承办好第二届全省旅游产业发展大会，3月19日，市委书记赵万山率我市学习考察团赴河北省保定市学习考察旅游产业及承办旅发大会工作经验。 保定市位于河北省中部，与北京、天津构成黄金三角，曾是直隶省会，直隶总督驻地，也是河北省最早的省会，为京津冀地区中心城市之一。保定市于2016年承办首届河北省旅发大会，借承办旅发大会之机，重点打造了京西百渡休闲度假区，目前全域旅游发展优势凸显，各大景区游客接待量大幅增长，改造升级的美丽乡村为游客带来了全新的乡村游体验。 在保定市，赵万山一行在保定市委副书记闫继红陪同下，先后来到保定市涞水县的野三坡智慧旅游中心、计鹿村四季圣诞小镇；易县的恋乡-太行水镇、易水湖金坡码头；涞源县的白石山景区和华中假日酒店温泉谷等地进行了实地考察，详细听取了有关情况的介绍，对各个景区、景点及美丽乡村建设情况进行深入了解。每到一处，考察团成员都认真听，仔细看，细细品，认真学习，虚心求教，热烈交流，详细了解景区和项目的建设、运营、资金投入等情况，进一步找差距、谋思路、明方向。 在涞水县的四季圣诞小镇，赵万山一行看规划、听介绍，了解乡村旅游发展和特色小镇建设工作情况，并详细询问企业负责人项目建设的理念、策划、运营、机制等细节和关键问题，一起探讨经营管理的成功经验。在易县恋乡-太行水镇和易水湖金坡码头，考察团成员认真了解易县旅游发展、特色小镇建设情况，对易县立足资源优势，加快从单纯的观光旅游向观光与休闲度假并重、从单纯的景点景区向旅游目的地和产业集聚区、从门票经济向产业经济的转型步伐，大力发展休闲度假旅游的做法结合实际进行了深入思考。涞源县借助河北省首届旅游业发展大会契机，凭借自身特有的旅游资源，抢抓机遇，围绕“新景区、新业态、新未来”主题，对周边村落进行精细打造，做到与白石山景区美丽观光相呼应，先后将白石口、荆山口、西道沟等13个村打造成旅游名村，有力推动了涞源全县旅游业的转型升级，不但实现了“旅游大县”向“旅游强县”的跨越式转变，而且有利助推了脱贫攻坚，加快了乡村振兴。赵万山一行对涞源县旅游产业发展取得的成绩表示钦佩。 考察中，赵万山指出，这次到保定市学习考察，主要目的就是深入学习旅游规划，开发建设，经营管理，服务规范等方面的先进经验，进一步解放思想，开拓眼界，打开思路，谋划跃升。我市拥有众多的旅游好资源，具备发展全域旅游的基础和条件。但在全域旅游规划、用好资源配置好市场，推进旅游产业精细化管理，体制机制创新，融合发展上需要做的工作还很多。因此，要以此次学习考察为契机，结合我市实际，进一步理清旅游产业发展思路，科学谋划，挖掘潜力，精心开发。承办旅发大会任务的相关区局及景区景点，要汲取营养，学习其超前的理念及先进的模式，更要学习保定市承办旅发大会期间所凝结成的旅发大会精神，加快规划编制和产业项目的进度，真抓实干、久久为功。 赵万山强调，推进旅游产业发展关键是要解放思想，更新观念。要增强合作意识，发挥旅游产业的集聚效应；要聘请专业公司策划符合伊春实际的旅游产业发展规划；要紧密结合伊春旅游产业实际，创新旅游开发建设理念、投融资体制机制、管理运行模式、服务标准体系上下苦功夫、真功夫、硬功夫，把我市的旅游产业做好、做大、做强，在原生态的底色下画出最美的图画，与企业一起迎接高铁时代到来。 考察中，赵万山会见了河北省人大常委会副主任、保定市委书记聂瑞平，赵万山对保定市的热情接待，以及在学习考察过程中给予的帮助和支持表示感谢。他说，此次学习考察，考察团看到了保定市的真情、真景， 学到了保定市的真招、真经。我们要认真总结，学习保定市涞易涞三县承办旅发大会的好经验好做法，特别是保定市借助办旅发大会推动经济社会发展、推动旅游转型升级的高远站位和全局视野，学习保定市在规划设计、项目建设，体制机制创新等方面的眼界和格局，进一步激励全市各级干部群众，以过硬的工作作风、改革创新的思维，凝神聚力，攻坚克难，确保旅发大会成功举办，全力推动我市旅游产业提档升级。同时，赵万山还邀请聂瑞平到伊春做客，感受林都雪城，生态伊春的独特魅力。 聂瑞平代表保定市委、市政府对考察团一行表示热烈欢迎。他表示，一定要去伊春感受小兴安岭大森林大冰雪的四季风光，进一步加强交流，优势互补，在多领域进行全方位合作，努力实现互利共赢。 市委副书记隋洪波、林管局副局长张跃文及我市有关部门负责人参加考察活动。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>62</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市商务局赴哈尔滨等地开发区学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-03-12</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101989/201903/228422.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['根据《中共黑龙江省委、黑龙江省人民政府关于促进开发区改革和创新发展的意见》（黑发［2018］18号）要求，进一步落实市委、市政府提出的关于加快我市经济开发区改革和创新发展的工作部署，学习借鉴周边发展较快城市经开区的先进经验，解放思想，开阔思路，加快推进经开区建设工作。3月7日至8日，市商务局组成了由党组成员、副局长徐鹏若带队，园区办工作人员参加的学习考察组，先后对哈尔滨经开区、绥化经开区、兰西经开区、安达经开区等地进行了考察学习。', '各经开区管委会负责人均热情详细的介绍了各自经开区的基本情况、改革和创新发展的思路和措施，考察组一行与对方认真座谈交流，汲取了各经开区的经验及建议，考察组还与各经开区探讨发展“飞地经济”的模式做法。通过此次考察学习，市商务局对经开区的改革创新发展和优化整合工作，有了更具体的思路和方向，下一步将结合我市经开区的工作实际，汲取先进经开区的经验和方法，积极推动经开区加快发展。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>62</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>南岔区考察团赴双城学习取得真经促发展</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2019-02-19</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/201902/211609.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['南岔区为深入贯彻落实习近平总书记重要讲话和重要指示精神，促进“一二三产”多元化布局向高质量发展，2月14日，组成学习考察团赴双城，就现代高效生态农业的大棚绿色有机蔬菜生产、赤松茸大棚种植等产业项目发展进行学习考察。', '考察团先后来到双城长产村绿色果蔬园、哈尔滨市翠韵果蔬种植专业合作社，考察了现代农业的绿色生态大棚蔬菜生产、赤松茸大棚种植等产业项目建设。', '在现代高效生态农业生产大棚内，考察团考察了无土栽培绿色有机蔬菜技术，十几种时令蔬菜，绿油油地生长在培养槽里，培养槽中没有一点土壤，只有清澈的营养液。据了解，无土栽培远离了土壤，基本杜绝植物土传病害的发生，同时大棚设施可预防蚊虫进内侵食蔬菜，蔬菜种植不用任何农药，可有效提升蔬菜的安全性，其营养价值和口感都非常好，深受消费者欢迎，带来的经济非常可观。基于“绿色无污染”的卖点，产品通过批发、高档超市等多渠道进行销售。', '在赤松茸种植大棚内，考察团参观了赤松茸播种、覆土、采摘全过程，在听取了合作社负责人情况介绍后，仔细了解了发展情况和取得的成功经验，认为赤松茸种植项目非常适合南岔区的气候和生态环境，生产周期短，投资小、见效快，市场前景广阔，具有不占用耕地，不消耗资源，又可以大量解决劳动力，大量消耗秸秆等优势。', '赤松茸蘑菇又称酒红球盖菇，其菇体色泽艳丽，肉质肥厚、滑嫩，菇柄爽脆，营养丰富，是一种较好的营养保健食品，富含蛋白质、矿物质元素、维生素以及多种氨基酸等，具有“素中之荤”之称。', '考察团走一路，学一路，看一路，议一路。在对比中看到了差距，在交流中学到了经验。一致认为，长产村绿色果蔬园区、翠韵果蔬种植专业合作社的项目，与南岔都有共通之处，同样适合南岔发展。同时，考察团还与企业达成了共识，在今后的产业发展中寻求合作，共谋发展。', '去年，南岔区把脱贫攻坚与发展特色产业结合起来，紧紧围绕“产业富民、产业脱贫”的发展目标，积极引导群众发展赤松茸蘑菇产业，一次性引进了30亩赤松茸蘑菇菌种，在林下种植。为了便于推广多地示范，还在晨明镇东红村的大棚中，进行了示范种植。同时，还帮助嘉荫县向阳乡育新村扶贫工作队示范引种了一亩赤松茸蘑菇，获得成功。', '考察结束后，经过反复论证，南岔区已经就赤松茸蘑菇项目大面积“嫁接”“落地”作出了部署，并成立了产业关联项目推进服务组。目前，49栋高标准的赤松茸蘑菇种植大棚已经完成基础设施建设，捡集秸秆400吨，购买锯末10吨，筹集玉米芯20吨，预定稻壳100吨。预计4月份开始种植150亩赤松茸蘑菇，6月份即可上市销售。', '人心思进，风帆正满。新春伊始，南岔区就以小项目谋大发展，这条产业富民的路子必将会越走越宽、越走越快、越走越远……']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>62</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>结对县市区赴广东茂名考察学习共同推动两市对口合作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/gzdt/202108/135715.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['为进一步推进伊春市与广东省茂名市的对口合作，巩固深化两市县（市）区间结对合作关系，7月27日至29日，市政府副秘书长郝佩林率伊春市结对县（市）区考察团赴广东茂名市开展对口合作交流。茂名市李恒和副秘书长全程陪同，并参加相关调研活动。', '考察团一行先后参观考察了茂名市规划展览馆、露天矿生态园、茂名石化化工分部、烷烃资源综合利用项目和绿色化工厂产业园区等，沿途边看边听茂名市在城市规划建设、生态环境治理、现代产业发展等方面的情况介绍，深入了解茂名市经济社会发展情况；还前往高州市根子镇贡园、红荔阁及浪漫海岸等地，实地感受茂名文化旅游的魅力。期间，双方进行了推介座谈，共同商讨对口合作、共赢发展等事项。', '在推介座谈会上，茂名市政府副秘书长李恒和表示，茂名、伊春两市地处我国大陆南北两端，虽地理距离遥远，但产业关联大、经济互补性强、合作空间大。自两市建立对口合作关系以来，双方签订了合作协议、制定了工作方案、年度工作计划，依托资源优势和特色产业，积极探索结对合作的路径举措，开展了系列交流互访、经贸合作活动，不断推动各领域对口合作项目落地，取得良好成效。希望双方以此次考察为契机，贯彻落实对口合作框架协议内容，加强沟通联系，强化两地政府、企业密切往来，推动双方多层次、多领域合作，实现互利共赢。', '市政府副秘书长郝佩林表示，此次考察深感茂名进入了快速发展新时期，产业发展、生态环境治理、城市规划建设等都让人耳目一新。同时，茂名党政干部思想解放，新思想和工作经验值得伊春市学习和借鉴。他表示，伊春市是一座林业资源型城市，也是我国开发最早的重点国有林区和老森林工业基地，希望通过双方政府搭建的服务平台，结对县区开展精准对接，探索拓展形式多样的合作交流，推动更多企业家加强彼此沟通交流，深入了解两地市场和资源优势，找准合作切入点，谋划推进合作的具体项目，实现发展共赢。', '在推介座谈会上，两市县（市）区依次播放宣传视频并做推介发言，就双方各自资源优势、特色产业、市场需求开展交流洽谈，积极探索下一步结对合作的路径举措，共同探讨确定未来重点合作领域和项目。', '会后，双方结对县（市）区签订了框架协议，确定未来合作的具体方向，开展务实合作，寻求更大的资源共享、互利共赢空间，为今后进一步深入合作，精准对接，探索拓展形式多样的合作交流奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>62</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>赵立涛赴省科学院微生物研究所考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101989/202105/230885.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['8日下午，市政府党组成员赵立涛，带领市科技局到黑龙江省科学院微生物研究所考察学习,省科学院微生物研究所所长张云志等相关领导参加活动。', '赵立涛一行人首先参观了微生物研究所科研平台，张云志所长全面介绍了微生物研究所的基本情况、主要科研领域和重点推介项目。市科技局介绍了伊春林下经济和森林食品的发展情况及产业需求。随后双方围绕需要解决的问题、下一步合作重点，进行了深入座谈与交流。', '赵立涛说，省科学院微生物研究所作为省重要的科技支撑，多年来大力支持伊春市科技工作，开展的科研基础工作布局充实，在食用菌领域取得了很好的成绩，为今后长远合作发展奠定了基础。下一步，双方要加强沟通和联系，推动伊林集团黑木耳食用菌包规模化生产，梳理问题和对接政策，通过合作，进一步推动伊春市科技创新深入发展。', '经过初步协商，双方达成共识，省科学院微生物研究所将根据伊春的实际情况，依托先进的技术优势，搭建合作平台，共同推动院市合作向更高层次、更深领域不断发展。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>62</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>铁力市政协召开赴宁安市考察学习座谈会</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2022-08-04</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202208/218644.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['为了深入学习贯彻习近平总书记关于加强和改进人民政协工作的重要思想，落实省政协《关于加强市（地）、县（市、区）政协协商工作更好发挥专门协商机构作用的指导意见》和《政协黑龙江省委员会关于推进委员工作站建设的指导意见》文件精神，铁力市政协党组书记、主席徐利明主持召开赴宁安市考察学习座谈会，各委员工作室和“协骊”议事厅成员、政协机关干部参加会议。', '会上，考察学习人员分别结合各自工作实际，畅谈本次学习考察的心得体会，互相交流参观感受，并对全市开展基层协商工作提出意见和建议。', '在听取发言后，徐利明指出，此次赴宁安市考察学习，目的在于解放思想，充分利用考察学习的机会，进一步提高思想认识，深入思考，将先进的基层协商工作经验融入到铁力市具体实践中。徐利明强调，要始终坚持党的领导，搭建好形式多样、广泛参与的基层协商平台。积极争取各部门、广大政协委员和社会各界的支持和参与，努力形成“党委领导、政府支持、政协搭台、各方参与”的基层协商工作格局。要通过考察学习，不断提升委员履职能力，更好的发挥好委员主体作用，采取灵活多样的方式开展民情座谈、实地走访调研，切实助力市委、市政府做好协调关系、理顺情绪、化解矛盾、凝聚共识等工作。要围绕“谁来协商、协商什么、怎么协商”，聚焦市委、市政府中心工作和群众身边的事情，因地制宜地开展好基层协商，破解基层治理中的难题，为擦亮全市“协骊”联合体品牌做出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>62</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>新疆生产建设兵团第十师北屯市基层党建考察学习班到乌翠区美江木艺公司考察</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2022-07-18</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202207/218514.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['7月14日，新疆生产建设兵团第十师北屯市基层党建考察学习班33名党务工作者在伊春市委组织部乔建堂科长及乌翠区委组织部工作人员陪同下，到市非企业党建先进单位美江木艺公司就党建工作进行实地考察交流学习。', '考察学习班成员在美江木艺公司党支部第一书记朱广德亲自陪同下，先后深入到木艺术展览馆、北沉香雕刻车间、王美江全国劳模和工匠人才创新工作室、美江木艺公司党员活动室等场所，参观了由党员自主研发制作的木制工艺品，观摩了北沉香工艺品现场制作等情况。美江木艺公司党支部第一书记朱广德详细介绍了公司党建情况，党员研发生产木制工艺品等情况。最后，考察学习班成员在美江木艺公司党员活动室就党建情况进行研讨交流。', '考察学习班成员对美江木艺公司党支部党建工作及党员模范作用发挥等方面的做法予以充分肯定，在研讨时一致表示，要珍惜难得考察学习机会，真正做到学有所悟、学有所得，不断开拓眼界、创新思维、提升工作质效，以全新的工作业绩和良好的精神面貌向党的二十大献礼。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>62</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>铁力市召开赴贵阳考察学习座谈会</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2022-08-29</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202208/218812.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['8月26日，铁力市召开赴贵阳考察学习座谈会，总结学习成果和先进经验，明确前进方向，推动铁力市数字经济更好更快发展。铁力市委书记陈岩主持会议并讲话，铁力市领导吕晓光、尹冬钢、刘铁力、李严、姚佳宇、王卿江出席座谈会，铁力市相关部门负责人参加座谈会。', '座谈会上，考察团成员结合赴贵阳市考察学习实际分别发言，畅谈学习心得体会，认真总结贵阳市在发展数字经济方面的先进经验和做法，查找差距和不足，并结合考察学习收获和铁力市实际情况，提出了实施体系优化工程、数字产业突破工程、传统产业赋能工程、数字政府“底线”工程和产业生态建设工程等意见和建议，为铁力市未来数字经济发展助力。', '听取汇报后，就提升铁力市数字经济发展工作，陈岩强调，要进一步提高政治站位和思想认识，各单位、各部门要深刻认识发展数字经济对经济社会实现高质量发展的作用和意义，要增强认识、理清思路、坚定信心，充分把握好发展数字经济的大机遇，加快打造发展新引擎。要明确目标方向，适度超前推进数字基础设施建设，持续不断推进工作取得新进展，为推动数字城市建设打好基础。要大力推动数字产业发展，进一步强化顶层设计与部门之间的联动，有效推进铁力市数字经济基础设施建设工作，加快全市数据资源的汇聚、整合及运用，加快推动数字产业化、产业数字化，以数字经济赋能铁力市高质量发展。要加强组织领导，强化组织保障力度，增加专题学习和培训频次，结合铁力市的区位、资源优势，加快数字产业布局，完善信息通信、软件服务等数字产业链，做好数字经济发展课题，不断开创铁力市数字经济发展新局面。', '陈岩强调，要以此次赴贵阳市考察学习为契机，认真总结此次考察学习的收获，为加快推进数字经济高质量发展提供有效的决策参考。', '会上，组织部、网信办、人社局、工信局、财政局、公安局、智慧办等11家单位和部门负责人作了交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>62</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>汤旺县考察团到铁力市考察学习城市公共绿地景观建设工作</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-06-08</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202206/218112.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['汤旺县委副书记、县长李东辉带领考察团来到铁力市考察学习城市公共绿地景观建设工作，铁力市园林绿化服务中心负责同志陪同考察。', '考察团一行先后来到铁力市儿童公园、抗联陈列馆、骊城书院、美术馆、花卉培育基地、铁力公园、滨河健康主题公园、瞻古园、奋进园以及创业就业基地等点位，实地考察学习铁力市城市绿化建设情况。实地参观考察后，考察团成员与铁力市园林行业工作人员开展深入探讨交流，全方位了解铁力市在城市景观建设中的具体举措、典型经验和成功做法，就工作机制、重点和难点问题等进行广泛交流。', '一路看、一路听、一路议、一路评。考察组一致表示，此次考察感触颇深，并对铁力市的城市绿地景观环境营造给予高度评价。希望在今后的学习交流中，两地相互取长补短，加强互动，共同实现城市品位和形象的双提升。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>62</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>铁力市委书记陈岩主持召开新经济产业考察学习班座谈研讨会议</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202206/218337.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['6月27日，铁力市委书记陈岩主持召开新经济产业考察学习班座谈研讨会议。铁力市领导王东海、尹冬钢、李兵、娄春阁及考察学习班学员和相关单位负责人参加会议。', '陈岩强调，要解放思想，充分利用考察学习班的学习机会，进一步提高思想认识，深入思考，做好企业服务，坚持问计于企，助推铁力市经济发展。要真抓实干，及时将本次考察学习班中学习到的好经验、好做法进行归纳整理，总结学员意见建议，推送到各相关单位推进实施。要结合铁力市实际，深入研究铁力市基层党建、农业发展、红色旅游、园区建设、招商引资、碳汇交易等方面工作，推动铁力市各项事业再上新台阶。', '陈岩强调，要进一步丰富旅游产品的多样性，精准定位目标人群，对铁力市红色资源进行整合，打造不同文旅产品，推动配套产业发展。要充分调动民间组织力量，团结引导广大文艺爱好者，发展城市文化，助推城市建设。', '陈岩强调，广大党员干部要振奋精神，勤奋有为，通过考察学习，不断提升自身应对困难的能力，坚定发展信心，坚守为民情怀，热爱家乡，热爱岗位，为建设铁力贡献力量。', '会上，尹冬钢就本次考察学习班考察学习情况进行了汇报，学习班成员分别结合各自工作实际，畅谈本次学习考察的心得体会，互相交流感受，共同提高学习成效。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>62</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>铁力市新经济产业考察组赴长沙考察学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202206/218316.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为加快打造铁力市经济发展新引擎，进一步深化“能力作风建设”，全面提升铁力市领导干部数字化治理能力、生态文明践行能力、新经济产业培育能力，6月16日至21日，铁力市成立了由铁力市委常委、组织部长尹冬钢带队，铁力市副市长李兵，铁力市政协副主席、住建局局长赵月及铁力市相关部门、各乡镇负责人参加的新经济产业考察组，前往长沙市就智慧农业、乡村振兴、生态文明、生物经济等方面，开展了为期一周的实地考察学习。', '6月17日，考察组一行先后到隆平智慧农业创新中心、土流集团考察了智慧农业、数字化土地平台等方面工作。', '在隆平智慧农业创新中心，考察组成员边看边问、边听边学，认真学习当地在农业现代化工作中好的经验和做法。', '在土流集团，考察组认真听取了土流集团对公司核心业务以及12年来深耕农业农村取得的主要成果与案例。在交流中，考察组一致表示，铁力市依托良好的生态环境、气候条件和黑土资源，始终坚持质量兴农、绿色兴农，不断推进农业生产由总量扩张向质量提升转变，希望在今后的工作中能够与公司进行深度合作，高效整合双方资源与优势，共同助力铁力市乡村振兴再上新台阶。', '6月18日，为进一步巩固党史学习教育成果，深化“能力作风建设”，切实增强党员干部的使命感和责任感，铁力市新经济产业考察组在韶山红色教育基地开展了“传承红色基因，践行初心使命”主题党日活动，集体接受革命传统教育，缅怀革命先烈。在鲜艳的党旗前，全体成员满怀崇敬之情，重温入党誓词，不忘入党初心，再次用铿锵有力的宣誓声抒发来自内心对党忠诚的决心。同时参观和瞻仰了毛主席故居，让大家切实感受到了伟人的成长故事和领袖的故乡情怀。大家一致表示，铁力市要深挖抗联精神文化资源，全力打造具有时代特征、地域特色、文化魅力的红色文化，切实讲好铁力市红色故事。以实际行动迎接党的二十大胜利召开。', '考察组听取了金洲村村落景区一体化运营中心负责人关于乡村振兴的经验做法介绍，实地感受了金洲村坚持“绿水青山就是金山银山”的发展理念和“党建引领、文旅搭台、经贸唱戏、法治护航”的发展思路。', '考察组全体成员一致表示，要学习借鉴长沙县的经验，继续深入推进“党建+”工作，强化基层党组织建设、聚焦乡土人才培育、发展特色产业、深入挖掘文化特色，寻找乡村振兴发力点；不断加快工农乡酒章文创园项目建设，并以年丰乡萌宠部落等民宿为依托，深度开发户外运动、亲子游玩等特色项目，推出一批“两日游”“三日游”精品路线，助力谱写铁力市“三农”发展新篇章，绘就乡村振兴壮美新画卷。', '考察组还认真听取了由中南林业科技大学林学院院长、教授李建安作的《生态文明与林业绿色发展——从“双碳”目标谈起》专题培训讲座。使大家进一步深化了对“双碳”行动及生态文明建设的理解和认识，提升了相关专业知识和能力。', '听取了远大集团工作人员就企业文化、中央空调产品、空气净化产品、可建技术、建筑节能服务等内容的详细介绍，并在远大集团联网监控中心和产品展示中心，现场观看了全球客户的实时在线数据。', '考察组还深入到长沙经济技术开发区进行了考察学习，长沙市经开区是湖南首家国家级经济技术开发区，现已成为中部地区工业发展的核心增长极和重要驱动力。考察组分别到九典制药公司、湖南省医药科技文化馆、湖南省普瑞玛药物研究中心有限公司进行了实地考察学习，并详细了解园区建设及进驻企业生产经营情况。', '考察组全体成员一致表示，要真正把长沙市经开区的好经验、好做法带回去并实际应用好。同时，要充分发挥铁力市省级经开区的优势，加大招商引资力度，特别是聚焦农林产品、畜禽产品、康养旅游、中药材、钼产业这5条重点产业链，大力招引头部企业、隐形冠军企业，加强对重点企业产业布局、投资趋向的跟踪研究，找准铁力市与其深化合作的结合点，力争引进一个大企业、突破一个大产业，形成发展的“雁阵效应”。此外，立足铁力市自然环境优势，以北药种植开发为基础，以精深加工、打造品牌为重点，以发展交易集散、休闲康养为延伸，全力打造“产加销、医养游”为一体的全产业链融合发展格局。', '6月21日，考察组在宁乡县关山村考察学习了乡村振兴发展经验和做法。考察组在工作人员的带领下，先后深入到关山村关山古镇景区、葡萄基地、居民集居点考察学习，详细了解关山村美丽乡村建设、乡村旅游等经验做法。 考察组全体成员一致认为，要借鉴和学习关山村乡村振兴的特点和经验，进一步坚定乡村振兴的信心和决心，结合区域自然优势和文化特色，积极在“党建+产业链”上下功夫，不断筑牢产业根基，提升乡村振兴“造血”功能，为富民兴业、科学发展注入强劲动能。同时，以“党建+旅游”为载体，着力打造具有辨识度的乡村特色旅游体系，以萌宠部落、酒章文创园为依托，因地制宜挖掘年丰乡朝鲜族“乡村民宿”、工农乡北星村“休闲农业”、双丰镇建国村“红色文化”、日月峡镇“森林康养”等特色资源，叫响全域深度特色游品牌。', '此外，考察组还对考察学习成果进行了集中研讨，联系自身工作实际找差距、谈感受、话发展，表示要切实把所见所学变成实实在在的举措落到实处，推动铁力市各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>62</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>董文琴率团赴福建省南平市三明市学习考察</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101986/202207/181381.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['6月26日至28日，市委副书记、市长董文琴率我市考察团先后到福建省南平市、三明市等地，学习考察生态文明建设、文旅产业发展、“生态银行”建设、林权制度改革、医药卫生体制改革等方面先进经验，对接战略合作相关事宜。', '黑龙江省农发行副行长李嶙峋参加考察活动，副市长肖爽、伊春森工集团公司总经理杨公伟、市政府秘书长韩殿君及我市各县（市）区政府主要负责人、市直相关单位负责人陪同考察。', '南平市位于福建北部，全市森林覆盖率78.89%，素有“南方林海”之美誉。域内的武夷山是世界文化与自然双遗产地、首批国家公园。南平市顺昌县“森林生态银行”是全国首个“生态银行”，2018年开始试点建设，由国有林场实行专业化运营增值，让林农获得长期持续稳定的收益。', '在南平市，董文琴一行先后深入到武夷山国家公园智慧管理中心、燕子窠生态茶园、顺昌“森林生态银行”、西坑森林康养示范点等地进行实地考察，详细了解武夷山国家公园运营管理情况及生态保护发展成效、森林生态银行模式、林业碳汇开发建设等方面情况。董文琴一行边走、边看、边听、边学，与南平市相关部门负责同志就国家公园建设、林业碳汇及绿色资产管理等内容进行了深入交流。', '在26日晚上召开的交流座谈会上，董文琴与南平市委常委、常务副市长张朝阳分别介绍了两市发展现状和合作愿景，就森林生态银行建设运营、绿色金融创新等方面问题进行了深入探讨。', '董文琴指出，南平市在落实“两山”理论、创新体制机制、搭建融资平台等诸多方面，值得伊春学习借鉴。伊春和南平有很多相似之处，也有很多可以互补的地方，希望以此次考察为契机，进一步加强双方政府、企业、社会等层面的合作交流，建立紧密的合作推进机制和党政领导互访机制，助力两市绿色发展水平同步提升。', '张朝阳代表南平市委、市政府对董文琴一行到南平考察交流表示热烈欢迎。张朝阳说，南平与伊春在自然资源、城市建设、产业发展等方面共性很多，期待未来两市的进一步交流与合作，南平将以更加开放的理念、务实的举措、优质的服务，为双方的合作营造良好的发展环境。', '三明市地处福建西部，是国家生态文明建设示范区、国家森林城市，同时还是一座具有改革创新基因的城市，“三明医药卫生体制改革经验”和“三明集体林权制度改革经验”已经成为全国样板。', '在三明市，董文琴一行先后到将乐县高唐镇常口村、福建金森公司、沙县区夏茂镇俞邦村、沙县区农村产权交易中心、沙县区总医院、三明市医保中心等地，进行学习考察。通过实地察看、座谈交流等形式，详细了解三明市在生态文明建设、林权制度改革、乡村振兴、沙县小吃发展模式、综合医疗制度改革等方面取得的成效和经验，并就在产业发展中如何充分发挥政府、协会、银行的作用；在综合医改中医疗卫生资源整合、绩效考核、信息平台建设等具体问题，与三明市副市长张元明及相关部门负责同志进行了深入交流。', '董文琴指出，近年来，三明市在改革突破、机制创新等方面，取得了良好的经验和成果，值得我们认真学习借鉴。卫健、医保等相关部门，要带着问题学习考察，带着思考问计询策，结合我市实际，认真学习、反复研究、探讨实施“三明医改”模式，把本次学习考察的成果转化为我市医改工作的动力和方向。同时，要充分吸收借鉴沙县小吃发展的好经验、好做法，结合我市文旅产业和森林食品产业的发展实际，认真研究制定适合我市产业发展的规划、思路和模式，加快推动我市高质量转型发展。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>62</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>隋洪波率队赴黑龙江省联通公司学习考察</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2021-11-29</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101986/202111/180590.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['11月26日，市委书记隋洪波率队赴黑龙江省联通公司学习考察，双方召开交流座谈会，就智慧城市建设推动伊春数字经济发展，进行了深入洽谈交流，以数字经济赋能伊春高质量绿色转型发展。', '座谈会上，市委书记隋洪波，省联通公司党委书记、总经理刘炳坤分别讲话，省联通公司有关负责同志就“智慧城市”顶层设计方案和智慧城市建设项目进行了专题讲解。省联通公司副总经理李春彦主持座谈会，市委常委、副市长孟利参加会议，双方深入进行了互动交流。', '隋洪波代表伊春市委、市政府向省联通公司长期以来对伊春工作的支持表示感谢。他指出，近年来，伊春市牢记习近平总书记“让老林区焕发青春活力”政治嘱托，深入贯彻落实习近平总书记关于数字经济发展的重要论述，把推动数字经济发展、培育发展新动能，作为答好习近平总书记“林区三问”的重要举措，加快新型智慧城市建设，以数字化赋能企业提档升级、促进优势产业发展，推进数字产业化、产业数字化，全力加快数字经济发展。', '隋洪波表示，省联通公司在传统基础网络运营、现代综合信息服务、5G技术应用等方面具有雄厚实力。伊春市委、市政府高度重视与省联通公司的合作，希望双方在“5G+新型智慧伊春”战略合作协议基础上，不断拓宽合作领域，进一步加强沟通交流，共同打造更高层次更高水平的新型智慧伊春。', '隋洪波指出，双方要深入落实省委书记许勤“抢抓机遇做大做强做优数字经济，为全面振兴全方位振兴提供强有力支撑”的要求，合力推动“数字龙江”发展规划在伊春落实落地。要强化顶层设计，坚持规划引领，注重系统集成，力争在5G+智慧城市、智慧政务、数字林业等领域，打造符合伊春当前实际又具有迭代升级能力的伊春模式。要加快“新基建”项目建设，加快推动光纤网络、5G网络等连接基础设施升级和商用，夯实为伊春高质量绿色转型发展提供全方位信息化服务的根基。要助力推动数字政府建设，围绕推进治理体系和治理能力现代化，突出抓好数据融合应用，着力打通数据“孤岛”，加快推动政务数据与物联感知数据相融合。要以提升人民群众幸福感和满意度为核心，通过数字化提升城市管理和服务水平，着力打造决策科学化、社会治理精准化、公共服务高效化的数字政府。要助力数字经济发展，不断拓宽数字化赋能制造业等传统产业高质量发展路径，促进数字经济与实体经济深度融合，加快推进数字产业化、产业数字化，集聚发展新动能，打造转型发展的新蓝海。要以此次考察学习、座谈交流为契机，进一步统一思想，凝聚共识，更新理念，着力补短板强弱项，扎扎实实做好伊春自己的事情，以智慧城市建设推动伊春数字经济发展。伊春市委、市政府将努力为双方合作创造良好条件和环境，推动双方互利共赢、共同发展。', '刘炳坤代表省联通公司对隋洪波一行的到来表示欢迎。他指出，近年来，伊春市委、市政府坚持以产业数字化、智能化为目标，在智慧林业、智慧工业、智慧旅游等方面取得了长足发展，通过双方合作推动，建龙西钢5G智能天车项目成为全省首个“5G+工业互联网”商用项目。在未来合作中，省联通公司将进一步发挥技术、资源优势，积极参与伊春智慧城市建设的顶层规划，加大对伊春相关基础设施建设的投入力度，助力伊春数据融合应用，为伊春经济社会发展贡献联通力量。', '会前，隋洪波一行来到哈尔滨市联通公司“数字龙江体验中心”和黑龙江省联通公司“数字化指挥中心”“智慧党建演示中心”进行了实地学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>62</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>能力作风建设市教育局青年学堂召开学习贯彻习近平总书记在人民大学考察时重要讲话精神交流会</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c102049/202205/106008.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['【能力作风建设】市教育局青年学堂召开 “学习贯彻习近平总书记在人民大学 考察时重要讲话精神”交流会 | 伊春市人民政府', '【能力作风建设】市教育局青年学堂召开 “学习贯彻习近平总书记在人民大学 考察时重要讲话精神”交流会', '2022年5月6日，市教育局青年学堂召开“学习贯彻习近平总书记在人民大学考察时重要讲话精神”交流会。4月25日，习近平总书记在中国人民大学考察调研并发表重要讲话，习近平总书记重要讲话思想深邃、内涵丰富、情真意切、语重心长，在市教育局青年干部中引发热烈反响。', '青年干部米央表示，习近平总书记到中国人民大学考察调研，对广大教育工作者、青年工作者深情寄语，充分体现了党中央对教育工作、青年工作的高度重视和殷切嘱托，为落实立德树人根本任务、推进新时代教育事业高质量发展提供了根本遵循。作为青年教育工作者，今后，我将立足实际，一如既往做好本职工作，始终做到“两个维护”，捍卫“两个确立”，不断增强紧跟党走中国特色社会主义道路的信心决心，喜迎党的二十大胜利召开。', '“学习习近平总书记重要讲话精神，让我更加明晰了身上的责任。”青年干部项慧鑫有感而发，她表示，作为一名年轻的教育工作者，要做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者，向英雄学习、向前辈学习、向榜样学习，争做堪当民族复兴重任的时代新人，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。要心怀“国之大者”，坚持党的领导，传承红色基因，扎根中国大地，在实现中华民族伟大复兴的时代洪流中踔厉奋发、勇毅前进。', '在讲话中指出，立足新时代新征程，中国青年的奋斗目标和前行方向归结到一点，就是坚定不移听党话、跟党走，努力成长为堪当民族复兴重任的时代新人。作为一名教育工作者，我深感使命光荣，责任重大。我们要厚植爱党爱国情怀，弘扬伟大建党精神，继续推进新时代党的建设新的伟大工程，要更加坚定理想信念，心怀大我，勇当大任，自觉树立为党和人民事业不懈奋斗的远大抱负，不断增强紧跟党走中国特色社会主义道路的信心决心，加强能力作风建设，以党建为引领，促教育新发展，', '青年干部师慧表示，作为一名青年教育工作者，定当牢记总书记教诲，自觉贯彻党的教育方针，努力践行“为党育人、为国育才”的初心使命，准确把握习近平总书记对教师队伍建设提出的新的更高要求，持续坚持师德第一标准，弘扬科学家精神，团结凝聚广大教师立德修身、潜心治学、开拓创新，努力做精于“传道授业解惑”的“经师”和“人师”的统一者。', '青年干部李唤宇深受习近平总书记重要讲话精神的启发与鼓舞。她表示，我们要答好“为谁培养人、培养什么人、怎样培养人”的根本问题，始终坚持为党育人、为民育才、立德树人、“五育并举”，让每一个学生享受公平而优质的教育。“双减”政策落地、《家庭教育促进法》实施、《义务教育课程方案和课程标准》修订等多措并举，体现了党和国家对教育的重视和期望，作为一名青年教育工作者和年轻党员，一定会不忘初心、牢记使命，以教育事业发展为己任，持续加强自身能力作风建设，不断锤炼精神品格、精进业务', '感悟颇深。她表示，习近平总书记考察人民大学，既饱含着对人民大学的殷殷期待，也彰显了对我国高等教育的高度重视。作为一名青年教育工作者，我要遵循习近平总书记的教诲，坚持党的领导，坚持为党和人民事业服务，传承红色基因，向前辈学习，通过学习努力锤炼本领，不断提升自己的工作能力，坚定理想信念，以逢山开路、遇水架桥、滚石上山的恒心和毅力面对和解决工作上遇到的困难，为伊春教育事业发展添砖加瓦，贡献出自己的一份力量。', '，继承发扬党的光荣传统和优良作风，从党史中吸收智慧力量和成功经验，不断增强“守初心、担使命”的政治自觉和行动自觉', '扬斗志，吹响奋进的“号子”。要用“初心”照亮奋进之路，用“实干”回答时代之问，在工作实践中砥砺初心、践行使命']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>62</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>汤旺县考察团到铁力市考察学习优化营商环境工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/202206/218048.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['汤旺县委常委、副县长陈业新率汤旺县营商环境考察团到铁力市考察学习优化营商环境工作，铁力市委常委、副市长刘铁力，铁力市营商环境局、市政务服务中心相关负责人参加活动。', '汤旺县考察团一行到铁力市政务服务中心进行实地考察，详细了解大厅楼层分布、窗口设置、工程建设专区等情况，重点询问了帮办代办、“一件事”综合窗口、“好差评”机制和24小时自助服务区及相关业务办理流程等情况，并与市营商局相关科室负责人进行业务交流座谈。', '座谈会上，双方就优化营商环境工作体制机制建设、政务服务大厅标准化建设、一网通办、打通数据壁垒和实现信息数据共享应用、一件事一次办、投资项目审批服务、涉企服务保障、互联网+监管、双公示、信易贷、码上诚信等方面工作，展开了深入交流学习。', '考察期间，汤旺县考察人员分别与铁力市住建、市监、人社、铁力镇政府等单位进行了对接交流学习，并实地考察了铁力镇综合便民服务中心。', '考察组一致表示，此次考察感触颇深，通过考察，学习了铁力营商环境建设的丰富经验和有益做法，回去后将创新营商环境建设思路，希望在今后的交流学习中，不断增强优化营商环境的责任感和使命感，进一步推动营商环境建设工作实现更大提升。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>62</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>金山屯区召开学习传达市委书记到金山屯调研考察及批示精神专题会议</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2019-01-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c101988/201901/211406.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['1月28日上午，金山屯区委书记孙玉玲在三楼会议室主持召开学习传达市委书记到金山屯调研考察及批示精神专题会议。 刘劲松、付安大、肖忠林等副处级以上领导出席会议。 会议传达了1月26日市委书记赵万山到金山屯区就冬季旅游发展情况调研考察以及对金山屯区工作汇报的批示精神。 会议强调，要抓好贯彻落实，研究金山屯区旅游业的短板和市场。要借助互联网优势，通过网络多宣传我区景区景点。要整合声光电，多角度打造景区内容，寻找专业人士做宣传、做品牌。要激发发展旅游的积极性，坚持市场化方向，擦亮旅游+文化的特色名片。要打造好养生文化，康养旅游，稳定发展。要找准战略定位，开拓眼光，对接好企业；要在景区名字上下功夫，多方面征求意见，叫一个响亮有地域特点的景区名字。相关部门要研究贯彻落实好赵万山书记调研考察以及批示精神，各战线领导和相关部门旅游企业要研究贯彻落实好调研考察内容，列出清单，制定措施研究好解决办法，为旅游企业健康发展铺路。重点研究好金山屯区的林业发展史、九峰山康养品牌、如何打响中医药文化这张牌，牢固践行好“两山论”，助推金山屯区旅游产业又好又快发展。 相关科室部门单位和各旅游企业参加会议并研讨发言。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>62</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>伊春市</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>伊春市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>我市到省森工总局考察学习教育体制改革</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-09-30</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.yc.gov.cn/ycsrmzf/c102049/202010/104448.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['在国庆节来临之前，9月28日，我市以副市长王忠秋为代表的考察组到省森工总局考察学习教育体制改革经验做法。', '省森工总局副总局长郑太林对考察组一行表示热烈欢迎，并组织改革办、教育、人社、财务等相关部门召开了座谈会。省森工总局副局长张冠武对森工教育系统概况、移交框架协议主要内容以及移交工作推进等情况进行了介绍，教育局局长卢伯松对教育改革的具体问题进行了重点解读；伊春市教育局局长张更利等针对森工改革一些重点、难点和对方进行了交流。']</t>
         </is>
